--- a/data/trans_camb/P08_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.701838715868912</v>
+        <v>-1.466583470949975</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.497946636486851</v>
+        <v>-2.446665486846133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.590087345457344</v>
+        <v>-1.838081822012852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.368063226618508</v>
+        <v>-1.232559162321906</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.606587625996913</v>
+        <v>-1.462928480442562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.790005895264855</v>
+        <v>-2.919677653624192</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.876898991487812</v>
+        <v>-0.9278128315542845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.519225425207739</v>
+        <v>-1.458167807678531</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.884959799458386</v>
+        <v>-1.893813266610931</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.623766351167564</v>
+        <v>1.735032340250492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1932383833430204</v>
+        <v>0.1329842387686284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.057267123717652</v>
+        <v>2.986049905337663</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.313140198831758</v>
+        <v>3.556788010060081</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.8441750029557</v>
+        <v>3.032852806928361</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.801541656620505</v>
+        <v>1.740742363718407</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.920724624142942</v>
+        <v>2.010225615019695</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.098994923298924</v>
+        <v>1.015519007727758</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.549082818285759</v>
+        <v>1.27635639775673</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7039005455674227</v>
+        <v>-0.6339915736042234</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8628348963468765</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4202514553793512</v>
+        <v>-0.3888381620811692</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.477554029916897</v>
+        <v>-0.4430038571298336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8902827312763089</v>
+        <v>-0.8884488224505769</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3713976283517861</v>
+        <v>-0.3831694417094865</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5960095725239266</v>
+        <v>-0.5530097785409097</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7518928631503999</v>
+        <v>-0.7659424085891597</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.034834228881511</v>
+        <v>1.96596821261118</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7320103492625387</v>
+        <v>0.7396644460519086</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.386678533616114</v>
+        <v>3.246363598446544</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.230926911938122</v>
+        <v>2.255229380899718</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.975027357593236</v>
+        <v>2.225217841355461</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.459703389610481</v>
+        <v>1.565271223216147</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.300022341012335</v>
+        <v>1.422443876568394</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8086011287690715</v>
+        <v>0.8138899588637686</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.073167767887494</v>
+        <v>0.8996472592873324</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.4354231516561238</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.620686564418726</v>
+        <v>-3.620686564418727</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1142894602689522</v>
@@ -878,7 +878,7 @@
         <v>0.01918232750756782</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.777790585357329</v>
+        <v>-0.7777905853573284</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.580043473322103</v>
+        <v>-1.482177464067141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.58194654633936</v>
+        <v>-1.553900327871985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5474980319854139</v>
+        <v>-0.4838425367380161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.000431709305859</v>
+        <v>-2.770134538353781</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.885966736047523</v>
+        <v>-3.039428031634966</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.82401276787323</v>
+        <v>-5.803562381382663</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.354330959808845</v>
+        <v>-1.533719160854059</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.528722663678656</v>
+        <v>-1.480312625848218</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.635799457973237</v>
+        <v>-2.535358689981481</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.310389800737081</v>
+        <v>2.498525552094412</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.418450680687803</v>
+        <v>2.355626237326689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.41624774413816</v>
+        <v>5.621294050145769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.072093086639077</v>
+        <v>2.15400228139781</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.993150547351237</v>
+        <v>2.025734228886026</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.69309202130441</v>
+        <v>-1.651553862636227</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.602661224145273</v>
+        <v>1.616106964210666</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.616097068996522</v>
+        <v>1.818794627849265</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.062880032412635</v>
+        <v>1.012540719157893</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.08834927875619572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.7346532800379719</v>
+        <v>-0.734653280037972</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02912441651746689</v>
@@ -983,7 +983,7 @@
         <v>0.004888238117409648</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1982046018767056</v>
+        <v>-0.1982046018767054</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3962307036200214</v>
+        <v>-0.3697406460324975</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.419504382861615</v>
+        <v>-0.4110933336298899</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.164660963605784</v>
+        <v>-0.1642545022425189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4797577311082939</v>
+        <v>-0.4540690716290156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4833673030944819</v>
+        <v>-0.4823731973045213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.899984389059632</v>
+        <v>-0.8945117529992844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2891505111117127</v>
+        <v>-0.3210964908343439</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3245164424433591</v>
+        <v>-0.3225277650582353</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5627830016852041</v>
+        <v>-0.5709613467631933</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.041406616692879</v>
+        <v>1.177993804423388</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.149568089599507</v>
+        <v>1.081293629908738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.373080997246401</v>
+        <v>2.672720985877413</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6184918851378679</v>
+        <v>0.5752683616456847</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5462708196067851</v>
+        <v>0.5504213293597501</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3996499365963999</v>
+        <v>-0.3983997673262559</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5222289879501827</v>
+        <v>0.5204349150492372</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5120253368978958</v>
+        <v>0.5675059985133472</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3522878169045224</v>
+        <v>0.324266046082037</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3987099625691701</v>
+        <v>-0.4602437490126616</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.345941397825867</v>
+        <v>-1.287270076859738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.682900062087861</v>
+        <v>-1.724646787277475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1599861731993205</v>
+        <v>0.07352399601734877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.302379417554873</v>
+        <v>-3.397925186732598</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.137509842231765</v>
+        <v>-2.981862215624919</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6783110164880246</v>
+        <v>0.4063603113480128</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.586546067932566</v>
+        <v>-1.673400935979381</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.667557180313877</v>
+        <v>-1.66792040490053</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.295733829373971</v>
+        <v>4.292862910144808</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.312739074941795</v>
+        <v>3.461841884941958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.281009869885407</v>
+        <v>3.00930418241319</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.572015296679629</v>
+        <v>6.331095555455998</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.421030435468445</v>
+        <v>2.233805369400142</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.376629563541938</v>
+        <v>2.863394198041135</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.533985120343448</v>
+        <v>4.714564412596569</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.073246427672852</v>
+        <v>2.005600559260162</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.19680669675548</v>
+        <v>1.92735869064652</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08350365841831968</v>
+        <v>-0.1020494859036205</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.249720617860321</v>
+        <v>-0.2461904225934173</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3333757097936986</v>
+        <v>-0.3536660681847063</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01048963101215052</v>
+        <v>0.005467889914459848</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3480588028755671</v>
+        <v>-0.3559277836274066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3189601314938598</v>
+        <v>-0.3116470736898942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09499092698916338</v>
+        <v>0.06139728502748835</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2263060150083412</v>
+        <v>-0.239678007409555</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2375301611468191</v>
+        <v>-0.2384312233145684</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.337624489833317</v>
+        <v>1.327609744298374</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.183009518687499</v>
+        <v>1.102590298731865</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.046208477333428</v>
+        <v>0.9485591437572644</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.01946969194876</v>
+        <v>0.9854747088729262</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3765493050996324</v>
+        <v>0.3610331326857094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3569208591643164</v>
+        <v>0.4932540184114951</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8602079939486589</v>
+        <v>0.9245038878386788</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3953615997315963</v>
+        <v>0.3813613116146339</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4292976174814526</v>
+        <v>0.3690983136329494</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.430038087567466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.431397607386966</v>
+        <v>4.431397607386965</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.306124555539759</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4612533624454329</v>
+        <v>0.2402594528941702</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8403294591116571</v>
+        <v>0.8881031092934435</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.150473135908814</v>
+        <v>1.143354253707062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.961319009129928</v>
+        <v>-3.106553474041775</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.488150669938848</v>
+        <v>-3.858328362030169</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.203456980975307</v>
+        <v>-4.828705816138204</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6444202598608408</v>
+        <v>-0.4423427857069292</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6889138474999812</v>
+        <v>-0.2913870804552894</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.135458010181322</v>
+        <v>-1.051461980833015</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.509948545226893</v>
+        <v>7.179648404324482</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.945461205630314</v>
+        <v>7.87435473042428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.777220191516167</v>
+        <v>8.188355952770079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.128259321303712</v>
+        <v>5.727922880233092</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.342794762811664</v>
+        <v>4.645058122694983</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.103424712824752</v>
+        <v>2.13298543228414</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.268077627157524</v>
+        <v>5.438541814780063</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.177308789794878</v>
+        <v>5.017261549384018</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.758838502704643</v>
+        <v>4.172826970930474</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.6117577725687</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6119455128996184</v>
+        <v>0.6119455128996182</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08513301862723592</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0340335324752477</v>
+        <v>0.01842002613416469</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.08532780077718921</v>
+        <v>0.09608003954414414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09981917074972699</v>
+        <v>0.1134850200961592</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1600687266607879</v>
+        <v>-0.1767894337208952</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2547390903980719</v>
+        <v>-0.2195043266721384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2846201009461715</v>
+        <v>-0.2830081855028981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05415091296835657</v>
+        <v>-0.03267721384432087</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05631485082813312</v>
+        <v>-0.02524941247191687</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08788550389452489</v>
+        <v>-0.08438816218092773</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.354625710088718</v>
+        <v>1.205767725610221</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.442006042269046</v>
+        <v>1.409224869335698</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.424498123632461</v>
+        <v>1.429944132940382</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4698492462925039</v>
+        <v>0.4300508496355044</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3521079430419169</v>
+        <v>0.3649512074389163</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1662879247317532</v>
+        <v>0.1619321505999499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5235322316852073</v>
+        <v>0.5539479294495275</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5145035090781004</v>
+        <v>0.514906118200111</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3832938996624302</v>
+        <v>0.4336697859787773</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.905051855506741</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.539451085078726</v>
+        <v>-2.539451085078714</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.501169227471102</v>
@@ -1520,7 +1520,7 @@
         <v>1.271297657547082</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.791037143136048</v>
+        <v>-1.791037143136051</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.675434413285187</v>
+        <v>-6.464124309998195</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.634451779567082</v>
+        <v>-6.856374167083463</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.314521124533799</v>
+        <v>-6.282905234723887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.652067608465507</v>
+        <v>3.125756291203392</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.19114205129087</v>
+        <v>-2.05108677075861</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.566544551574614</v>
+        <v>-8.353740841990303</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.32059402439121</v>
+        <v>0.3174170719732453</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.016285676998172</v>
+        <v>-3.259596889506357</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.520845819160676</v>
+        <v>-5.44499847945734</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.366967073773194</v>
+        <v>4.402494390086368</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.498566880694519</v>
+        <v>4.250384697456949</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.16101075341819</v>
+        <v>4.050740478345034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.77911476074026</v>
+        <v>15.90519086681227</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.29516087936694</v>
+        <v>10.21480454490748</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.803473875169399</v>
+        <v>2.46959755558469</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.56503462164029</v>
+        <v>8.880455979916881</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.146508500959205</v>
+        <v>5.577223706188241</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.048026944921309</v>
+        <v>1.429993881961346</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1409030567223499</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.09162910853024982</v>
+        <v>-0.09162910853024941</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1860152499055428</v>
@@ -1625,7 +1625,7 @@
         <v>0.05253762734128838</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.07401637328746719</v>
+        <v>-0.07401637328746731</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2845350706033078</v>
+        <v>-0.2734013541264531</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2846702895953154</v>
+        <v>-0.3043941367644123</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2665451852559348</v>
+        <v>-0.2665517608857988</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1193272817285185</v>
+        <v>0.1039343731775135</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0680373531119892</v>
+        <v>-0.06918629284574526</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2371919174694886</v>
+        <v>-0.2620182553395709</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01018116974331111</v>
+        <v>0.01222281134197622</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1108690031753439</v>
+        <v>-0.1245587570129219</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2097045872947992</v>
+        <v>-0.2039150847898256</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2423579098899121</v>
+        <v>0.2523880663241351</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2605120286470203</v>
+        <v>0.2352263629158619</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2410016654104346</v>
+        <v>0.2361207824456447</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6874784029319271</v>
+        <v>0.6462688401295424</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4176794580697569</v>
+        <v>0.4126108293186597</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1240176451066222</v>
+        <v>0.1054318268058275</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3805731831389921</v>
+        <v>0.407761763175496</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2371428535394307</v>
+        <v>0.250343949529695</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.09426892570376569</v>
+        <v>0.06493648960358835</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-6.487122958766678</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-13.92120933892959</v>
+        <v>-13.9212093389296</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.162513313875216</v>
@@ -1734,7 +1734,7 @@
         <v>-2.005526029405635</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-9.945917221466649</v>
+        <v>-9.945917221466638</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.01121952006136726</v>
+        <v>0.1594995756514021</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.750824788639787</v>
+        <v>-3.073549260149572</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.5190602336913</v>
+        <v>-10.77410050832064</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.828222620030058</v>
+        <v>-6.42901042300762</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.548103004831</v>
+        <v>-14.18686332160089</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-19.80441898071014</v>
+        <v>-20.78516452148202</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.114002216215562</v>
+        <v>-1.030731180971702</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.089253794873869</v>
+        <v>-7.115361241286397</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.27979146463867</v>
+        <v>-14.6193225385787</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.90951625219229</v>
+        <v>15.44613959101871</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.47439947234281</v>
+        <v>11.29298899070948</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.544816655969832</v>
+        <v>1.456426817046794</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.967144042931414</v>
+        <v>8.586479039303068</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8670282673953089</v>
+        <v>0.8186183668244267</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-7.45398308982639</v>
+        <v>-8.495304169091268</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.167618446099858</v>
+        <v>9.82752118910382</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.098028796086648</v>
+        <v>3.044888169071383</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-5.252022049072503</v>
+        <v>-5.419078233757936</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1219680067983308</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2617403995706536</v>
+        <v>-0.2617403995706538</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1009727527816807</v>
@@ -1839,7 +1839,7 @@
         <v>-0.0486493300308208</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2412644873573415</v>
+        <v>-0.2412644873573412</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0002751443423568839</v>
+        <v>0.0001889081454740164</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1278754984194169</v>
+        <v>-0.1018044097087138</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3586339739868016</v>
+        <v>-0.3343955131488146</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.08282695489754678</v>
+        <v>-0.1106730300632814</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2397339266281943</v>
+        <v>-0.2457545482238407</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3477342472775315</v>
+        <v>-0.3607523558988051</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04811438689517369</v>
+        <v>-0.02354704901317779</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1634048140225814</v>
+        <v>-0.1635793653880406</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.321510020709205</v>
+        <v>-0.3290068047526783</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6204812730740576</v>
+        <v>0.6804428414990242</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4493851959345754</v>
+        <v>0.4730725891428693</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.06742823972861885</v>
+        <v>0.0678289483524533</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1864653066517033</v>
+        <v>0.1721488646405996</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01795991280848259</v>
+        <v>0.01722407053495809</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1512011793005396</v>
+        <v>-0.1719761650433724</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2378377485332133</v>
+        <v>0.2543986860372442</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.07967780853455853</v>
+        <v>0.08167561635517674</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.138661823800468</v>
+        <v>-0.1424109306918733</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-5.805520715650903</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.875381065829929</v>
+        <v>-1.87538106582994</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>8.565228614531851</v>
@@ -1948,7 +1948,7 @@
         <v>-2.64749337206055</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-2.815787738886677</v>
+        <v>-2.815787738886688</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.147639923123708</v>
+        <v>4.947188196180143</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.450329399222561</v>
+        <v>-6.462075799576279</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.47950988432258</v>
+        <v>-11.74748598228514</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.019713193579838</v>
+        <v>-1.423085125467271</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-12.75661090521327</v>
+        <v>-12.77122311250178</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.487121747542143</v>
+        <v>-7.778064384081183</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.573072156760208</v>
+        <v>2.980502831261265</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.436921021071415</v>
+        <v>-8.215511998719242</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-7.869297686559186</v>
+        <v>-7.721275709464634</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.68116282307605</v>
+        <v>23.60811037681494</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.28093849077922</v>
+        <v>11.06790108144071</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.943176023551564</v>
+        <v>4.057748584103179</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.07191789719957</v>
+        <v>12.06295151939401</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.302690937925193</v>
+        <v>1.207878430799194</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.396852167492357</v>
+        <v>4.097199110810293</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.65796195537733</v>
+        <v>14.10168615122618</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.362408457625267</v>
+        <v>3.10322622767441</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.909806093937219</v>
+        <v>2.627198079197996</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.07661072928891574</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.02474787675126683</v>
+        <v>-0.02474787675126697</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1276199519109003</v>
@@ -2053,7 +2053,7 @@
         <v>-0.0394470471288479</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.04195459479252455</v>
+        <v>-0.04195459479252472</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08398392506180362</v>
+        <v>0.08027049272032526</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1115998726233267</v>
+        <v>-0.1153223277034102</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1978267298719902</v>
+        <v>-0.1995292103954221</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01296071029943303</v>
+        <v>-0.01818317392024052</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1622262645359452</v>
+        <v>-0.1624302197665028</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08225789689623084</v>
+        <v>-0.09740486054083498</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05157463636627468</v>
+        <v>0.04182511905077294</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1195717056214507</v>
+        <v>-0.1176413797518971</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1129839021501069</v>
+        <v>-0.1102277421440788</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4677838876505988</v>
+        <v>0.4902233738515573</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2364663218915929</v>
+        <v>0.2301306384349808</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1010184045253287</v>
+        <v>0.08907779633947367</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1689517666628085</v>
+        <v>0.1688838484167818</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01956879332161298</v>
+        <v>0.01660198836421715</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06193565402610432</v>
+        <v>0.05798560701933932</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2111967468196088</v>
+        <v>0.2197734634985755</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03733278738075068</v>
+        <v>0.0463420083343676</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.02964871489280387</v>
+        <v>0.04016761189376341</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>1.964237871436852</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.098392847009869</v>
+        <v>2.098392847009872</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.870614298207875</v>
+        <v>1.793635508313365</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.218213653834329</v>
+        <v>1.164952044554186</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.687140932846958</v>
+        <v>1.801746153669706</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.88622361084698</v>
+        <v>1.814228962641038</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7361144692326881</v>
+        <v>-0.9185335828231422</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.034572741684766</v>
+        <v>-1.044629077327845</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.290125045893292</v>
+        <v>2.380184458490433</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.5403870411976334</v>
+        <v>0.6807015615886041</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.8447028919517883</v>
+        <v>0.9119493732875693</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.174611289620758</v>
+        <v>5.01427164282117</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.309751634230318</v>
+        <v>4.274384271709356</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.933363706558758</v>
+        <v>4.802916268836486</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.921663222715384</v>
+        <v>5.977092799030235</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.188523212162721</v>
+        <v>3.122258084761795</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.588186921019503</v>
+        <v>2.565124255643592</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.970261172936837</v>
+        <v>5.037992747903049</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.322880320113598</v>
+        <v>3.300435518600342</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.28630659688373</v>
+        <v>3.391439864316149</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.1199642633348291</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.1281576716034245</v>
+        <v>0.1281576716034247</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1506401880637139</v>
+        <v>0.1509450971684382</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.09906521886930665</v>
+        <v>0.09751931337590304</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1409339484045917</v>
+        <v>0.1544434201945024</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.08584623878173687</v>
+        <v>0.08123778695158021</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.03301091623800949</v>
+        <v>-0.04026690042005058</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.04325342672296761</v>
+        <v>-0.04632630423430335</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1356700326909001</v>
+        <v>0.1411654712682568</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0320343170668911</v>
+        <v>0.03878054939056728</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.04932899271490436</v>
+        <v>0.05369474429209225</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4932682181971345</v>
+        <v>0.4855687823783348</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4105694694037749</v>
+        <v>0.4102303557871918</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4747565233429919</v>
+        <v>0.470507628643606</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2926188685155316</v>
+        <v>0.2944334747410315</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1578506591713225</v>
+        <v>0.1535068809012028</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1270911138986057</v>
+        <v>0.1252753436092086</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3158062316598143</v>
+        <v>0.322721342908199</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.210319851802545</v>
+        <v>0.2063582558315963</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2074996697851625</v>
+        <v>0.2144777363270101</v>
       </c>
     </row>
     <row r="52">
